--- a/textToOps/data/processed/classification_wo_paraphrase_report.xlsx
+++ b/textToOps/data/processed/classification_wo_paraphrase_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,20 +458,20 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -481,35 +481,35 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -534,17 +534,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="C6" t="n">
         <v>0.9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -553,36 +553,36 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -591,26 +591,26 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -629,55 +629,55 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C11" t="n">
         <v>0.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -686,26 +686,26 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -718,80 +718,80 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
@@ -800,96 +800,153 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8333333333333334</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>macro avg</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8283333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="C23" t="n">
-        <v>0.795</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.779047619047619</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E23" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6825396825396826</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5565217391304348</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5847826086956521</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5615565593826464</v>
+      </c>
+      <c r="E26" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
           <t>weighted avg</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0.8672839506172839</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.8223985890652558</v>
-      </c>
-      <c r="E24" t="n">
-        <v>54</v>
+      <c r="B27" t="n">
+        <v>0.6349206349206349</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.6506562220847935</v>
+      </c>
+      <c r="E27" t="n">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/textToOps/data/processed/classification_wo_paraphrase_report.xlsx
+++ b/textToOps/data/processed/classification_wo_paraphrase_report.xlsx
@@ -458,64 +458,64 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.25</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8000000000000002</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -528,42 +528,42 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8181818181818182</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -572,102 +572,102 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.75</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C9" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.75</v>
+        <v>0.878048780487805</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.75</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C12" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.75</v>
+        <v>0.9375</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -680,108 +680,108 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -794,102 +794,102 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -899,16 +899,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6825396825396826</v>
+        <v>0.9465020576131687</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6825396825396826</v>
+        <v>0.9465020576131687</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6825396825396826</v>
+        <v>0.9465020576131687</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6825396825396826</v>
+        <v>0.9465020576131687</v>
       </c>
     </row>
     <row r="26">
@@ -918,16 +918,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5565217391304348</v>
+        <v>0.9414717619877188</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5847826086956521</v>
+        <v>0.9251897860593512</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5615565593826464</v>
+        <v>0.9289572082623522</v>
       </c>
       <c r="E26" t="n">
-        <v>63</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.6349206349206349</v>
+        <v>0.9536352335411411</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6825396825396826</v>
+        <v>0.9465020576131687</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6506562220847935</v>
+        <v>0.9458877451460398</v>
       </c>
       <c r="E27" t="n">
-        <v>63</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/textToOps/data/processed/classification_wo_paraphrase_report.xlsx
+++ b/textToOps/data/processed/classification_wo_paraphrase_report.xlsx
@@ -465,13 +465,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9859154929577464</v>
       </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.878048780487805</v>
+        <v>0.8979591836734693</v>
       </c>
       <c r="E9" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.9</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9375</v>
+        <v>0.9473684210526316</v>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="D18" t="n">
-        <v>0.923076923076923</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -851,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -899,16 +899,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9465020576131687</v>
+        <v>0.9297658862876255</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9465020576131687</v>
+        <v>0.9297658862876255</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9465020576131687</v>
+        <v>0.9297658862876255</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9465020576131687</v>
+        <v>0.9297658862876255</v>
       </c>
     </row>
     <row r="26">
@@ -918,16 +918,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9414717619877188</v>
+        <v>0.9336018970609764</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9251897860593512</v>
+        <v>0.8805077169207604</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9289572082623522</v>
+        <v>0.8870649772157809</v>
       </c>
       <c r="E26" t="n">
-        <v>243</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9536352335411411</v>
+        <v>0.9448668930766118</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9465020576131687</v>
+        <v>0.9297658862876255</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9458877451460398</v>
+        <v>0.9280713624955823</v>
       </c>
       <c r="E27" t="n">
-        <v>243</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/textToOps/data/processed/classification_wo_paraphrase_report.xlsx
+++ b/textToOps/data/processed/classification_wo_paraphrase_report.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.75</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.8571428571428571</v>
-      </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.6875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9375</v>
+        <v>0.75</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9375</v>
+        <v>0.9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9375</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9859154929577464</v>
+        <v>0.9454545454545454</v>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -579,13 +579,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8979591836734693</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9473684210526316</v>
+        <v>0.8181818181818181</v>
       </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -709,16 +709,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.962962962962963</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="E16" t="n">
         <v>14</v>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4444444444444444</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C18" t="n">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +826,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="E22" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.8</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -899,16 +899,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9297658862876255</v>
+        <v>0.8905472636815921</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9297658862876255</v>
+        <v>0.8905472636815921</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9297658862876255</v>
+        <v>0.8905472636815921</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9297658862876255</v>
+        <v>0.8905472636815921</v>
       </c>
     </row>
     <row r="26">
@@ -918,16 +918,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9336018970609764</v>
+        <v>0.8672294347331828</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8805077169207604</v>
+        <v>0.830108961087222</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8870649772157809</v>
+        <v>0.8341796061480337</v>
       </c>
       <c r="E26" t="n">
-        <v>299</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9448668930766118</v>
+        <v>0.8965656905569412</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9297658862876255</v>
+        <v>0.8905472636815921</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9280713624955823</v>
+        <v>0.8830832556045235</v>
       </c>
       <c r="E27" t="n">
-        <v>299</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/textToOps/data/processed/classification_wo_paraphrase_report.xlsx
+++ b/textToOps/data/processed/classification_wo_paraphrase_report.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6428571428571429</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.75</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.9</v>
-      </c>
       <c r="D4" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.896551724137931</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9454545454545454</v>
+        <v>0.75</v>
       </c>
       <c r="E6" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8181818181818181</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -709,16 +709,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8461538461538461</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -728,16 +728,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.5</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -823,16 +823,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.962962962962963</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -899,16 +899,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8905472636815921</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8905472636815921</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8905472636815921</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8905472636815921</v>
+        <v>0.7037037037037037</v>
       </c>
     </row>
     <row r="26">
@@ -918,16 +918,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8672294347331828</v>
+        <v>0.6387163561076604</v>
       </c>
       <c r="C26" t="n">
-        <v>0.830108961087222</v>
+        <v>0.6775362318840579</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8341796061480337</v>
+        <v>0.6365424430641822</v>
       </c>
       <c r="E26" t="n">
-        <v>201</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.8965656905569412</v>
+        <v>0.7261904761904762</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8905472636815921</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8830832556045235</v>
+        <v>0.6990740740740742</v>
       </c>
       <c r="E27" t="n">
-        <v>201</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
